--- a/work/2I意向单接口规范@20170821.xlsx
+++ b/work/2I意向单接口规范@20170821.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>字段</t>
   </si>
@@ -162,6 +162,45 @@
  历史文件 011_YX_201708_PRE
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_id                 string                  订单归属省分                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_id                 string                  订单归属地市                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">appointment_id          string                  之前称 预约ID                                                                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">appointment_date        string                  意向单时间                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_id                string                  订单号，意向单流程：转化为正式单的订单号，非意向单流程：下单时，生成的订单号                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_date              string                  订单时间，意向单转化为订单的时间                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">goods_name              string                  商品名称                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_device_number     string                  下单时，客户预留的联系号码                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">device_number           string                  预占号码，用户下单选择的号码                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_type              string                  正式订单 意向单                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_type               string                  腾讯王卡、滴滴王卡、百度神卡、招行卡、钉钉商务卡                                                        </t>
+  </si>
+  <si>
+    <t>intention_reason        string                  王卡审核结果编码：审核成功、客户异常、国政通异常、其他异常、号码预占失败、用户ip重复下单、用户未满16周岁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_card                 string                  身份证或军官证号码   </t>
   </si>
 </sst>
 </file>
@@ -609,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,59 +661,59 @@
     <col min="3" max="3" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -685,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="str">
         <f>"省分"</f>
         <v>省分</v>
@@ -696,8 +735,11 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>"地市"</f>
         <v>地市</v>
@@ -708,8 +750,11 @@
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>"意向ID"</f>
         <v>意向ID</v>
@@ -720,8 +765,11 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>"预约时间"</f>
         <v>预约时间</v>
@@ -732,8 +780,11 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>"订单号"</f>
         <v>订单号</v>
@@ -744,8 +795,11 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>"订单生成时间"</f>
         <v>订单生成时间</v>
@@ -756,8 +810,11 @@
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>"商品名称"</f>
         <v>商品名称</v>
@@ -768,8 +825,11 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>"预约号码"</f>
         <v>预约号码</v>
@@ -780,8 +840,11 @@
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>"订购号码"</f>
         <v>订购号码</v>
@@ -792,8 +855,11 @@
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>"订单类型"</f>
         <v>订单类型</v>
@@ -804,8 +870,11 @@
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>"王卡类别"</f>
         <v>王卡类别</v>
@@ -816,8 +885,11 @@
       <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>"意向单原因"</f>
         <v>意向单原因</v>
@@ -828,8 +900,11 @@
       <c r="C21" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>"身份证号"</f>
         <v>身份证号</v>
@@ -840,20 +915,23 @@
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C29" s="2"/>
     </row>
   </sheetData>
